--- a/data/pca/factorExposure/factorExposure_2013-06-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-06.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001858387327483396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.00180783005446068</v>
+      </c>
+      <c r="C2">
+        <v>-0.03155615709412386</v>
+      </c>
+      <c r="D2">
+        <v>0.004157545616842971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001517227811112035</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.005944859320189856</v>
+      </c>
+      <c r="C4">
+        <v>-0.08418160493782208</v>
+      </c>
+      <c r="D4">
+        <v>0.08162220413165119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0004505687004169685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01302823691455413</v>
+      </c>
+      <c r="C6">
+        <v>-0.1075566488133745</v>
+      </c>
+      <c r="D6">
+        <v>0.03487377624432755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001754693891434997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004876693546972586</v>
+      </c>
+      <c r="C7">
+        <v>-0.05107107354076664</v>
+      </c>
+      <c r="D7">
+        <v>0.0372234616129151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.002221815285380948</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005652308091439113</v>
+      </c>
+      <c r="C8">
+        <v>-0.03700456951729453</v>
+      </c>
+      <c r="D8">
+        <v>0.04115908674585709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005310977160341075</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.003955510093275699</v>
+      </c>
+      <c r="C9">
+        <v>-0.06880776535876659</v>
+      </c>
+      <c r="D9">
+        <v>0.07087759174316952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.005751151651735168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005720129246294932</v>
+      </c>
+      <c r="C10">
+        <v>-0.07591522393118155</v>
+      </c>
+      <c r="D10">
+        <v>-0.2096711706199117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.005308055306990709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.004938457566340252</v>
+      </c>
+      <c r="C11">
+        <v>-0.07827535834613829</v>
+      </c>
+      <c r="D11">
+        <v>0.06610168266152207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0009297371075365676</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003685888373365748</v>
+      </c>
+      <c r="C12">
+        <v>-0.06290813302991605</v>
+      </c>
+      <c r="D12">
+        <v>0.04762756552529945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003849438000246716</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008534074754372137</v>
+      </c>
+      <c r="C13">
+        <v>-0.06916632157875817</v>
+      </c>
+      <c r="D13">
+        <v>0.07038223816316999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.00367670939135411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001573394068110853</v>
+      </c>
+      <c r="C14">
+        <v>-0.04577819614140478</v>
+      </c>
+      <c r="D14">
+        <v>0.01418923946353755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.003215420336274496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005592558059910332</v>
+      </c>
+      <c r="C15">
+        <v>-0.03771925158962479</v>
+      </c>
+      <c r="D15">
+        <v>0.04107848869430358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002886841451729122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004756414624730239</v>
+      </c>
+      <c r="C16">
+        <v>-0.06445369884434193</v>
+      </c>
+      <c r="D16">
+        <v>0.05107974968546731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0008809103925255698</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008887026658381312</v>
+      </c>
+      <c r="C20">
+        <v>-0.06461445471621892</v>
+      </c>
+      <c r="D20">
+        <v>0.05745402483235126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.004580026723803609</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.00980747116537096</v>
+      </c>
+      <c r="C21">
+        <v>-0.02333092796687877</v>
+      </c>
+      <c r="D21">
+        <v>0.03761043347514913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.0161096879931657</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007080815401507617</v>
+      </c>
+      <c r="C22">
+        <v>-0.08991110899851706</v>
+      </c>
+      <c r="D22">
+        <v>0.09934164485502543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01636487206759206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006878393135142674</v>
+      </c>
+      <c r="C23">
+        <v>-0.0909978564661546</v>
+      </c>
+      <c r="D23">
+        <v>0.09990524107659357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003929359148350377</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004458738365127959</v>
+      </c>
+      <c r="C24">
+        <v>-0.0725649947085608</v>
+      </c>
+      <c r="D24">
+        <v>0.06006101787401894</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005619017021378187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002608166050302707</v>
+      </c>
+      <c r="C25">
+        <v>-0.07665987588691704</v>
+      </c>
+      <c r="D25">
+        <v>0.06581640674600732</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006201757712504628</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003486515061560127</v>
+      </c>
+      <c r="C26">
+        <v>-0.04075770307266993</v>
+      </c>
+      <c r="D26">
+        <v>0.02884165102224973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004805977403243964</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0004198795937370587</v>
+      </c>
+      <c r="C28">
+        <v>-0.1272329495784257</v>
+      </c>
+      <c r="D28">
+        <v>-0.3075370107473204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001770530969964898</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003192897807824624</v>
+      </c>
+      <c r="C29">
+        <v>-0.04777815754412779</v>
+      </c>
+      <c r="D29">
+        <v>0.01677294087584691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005329062112207612</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008696006659374398</v>
+      </c>
+      <c r="C30">
+        <v>-0.1376043638240147</v>
+      </c>
+      <c r="D30">
+        <v>0.107939662646871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0002816571881934959</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006071479422132472</v>
+      </c>
+      <c r="C31">
+        <v>-0.04500255029183813</v>
+      </c>
+      <c r="D31">
+        <v>0.03676495779210262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.00197627401627329</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003848917343658694</v>
+      </c>
+      <c r="C32">
+        <v>-0.03969531180012007</v>
+      </c>
+      <c r="D32">
+        <v>0.01439695789095384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002990301723391186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.00757228680230611</v>
+      </c>
+      <c r="C33">
+        <v>-0.08150867602708081</v>
+      </c>
+      <c r="D33">
+        <v>0.07698552143243206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005327185851794362</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003521353339372823</v>
+      </c>
+      <c r="C34">
+        <v>-0.05628387068152944</v>
+      </c>
+      <c r="D34">
+        <v>0.04553968642596464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.004101056339835433</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.0048182740139523</v>
+      </c>
+      <c r="C35">
+        <v>-0.03829214387930067</v>
+      </c>
+      <c r="D35">
+        <v>0.01297526161932928</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004600803790684891</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.00145042666223547</v>
+      </c>
+      <c r="C36">
+        <v>-0.02339920143025626</v>
+      </c>
+      <c r="D36">
+        <v>0.02393898621124483</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002536808795002107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009471816395334301</v>
+      </c>
+      <c r="C38">
+        <v>-0.03419951486584219</v>
+      </c>
+      <c r="D38">
+        <v>0.03038036974076415</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01358926424504436</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001178649790304328</v>
+      </c>
+      <c r="C39">
+        <v>-0.1151525980358399</v>
+      </c>
+      <c r="D39">
+        <v>0.08091993375478994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007898448953780203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002168893526781025</v>
+      </c>
+      <c r="C40">
+        <v>-0.08539342579482437</v>
+      </c>
+      <c r="D40">
+        <v>0.02602447827154297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>8.729765821265987e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007277094024247751</v>
+      </c>
+      <c r="C41">
+        <v>-0.0388375520891628</v>
+      </c>
+      <c r="D41">
+        <v>0.0378375165681307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.00280155771937769</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003015625002881603</v>
+      </c>
+      <c r="C43">
+        <v>-0.05056108389252698</v>
+      </c>
+      <c r="D43">
+        <v>0.02920691297726743</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005077387808942677</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003426324160126244</v>
+      </c>
+      <c r="C44">
+        <v>-0.1069768276390869</v>
+      </c>
+      <c r="D44">
+        <v>0.08425828056920365</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002544097193557578</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002368337036213735</v>
+      </c>
+      <c r="C46">
+        <v>-0.0343544170488836</v>
+      </c>
+      <c r="D46">
+        <v>0.03495969692615383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.00138425324397537</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002891851778968133</v>
+      </c>
+      <c r="C47">
+        <v>-0.03840395596223849</v>
+      </c>
+      <c r="D47">
+        <v>0.0297178410120259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003831911474650439</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006457891912914961</v>
+      </c>
+      <c r="C48">
+        <v>-0.0293557323283718</v>
+      </c>
+      <c r="D48">
+        <v>0.03224124448229051</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01479596836630435</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01366352174513844</v>
+      </c>
+      <c r="C49">
+        <v>-0.1711893960428884</v>
+      </c>
+      <c r="D49">
+        <v>0.03370247310771365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0005127651074421267</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003548853950583639</v>
+      </c>
+      <c r="C50">
+        <v>-0.04107200546319788</v>
+      </c>
+      <c r="D50">
+        <v>0.04061659254362879</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001093610853354503</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.003995194307497004</v>
+      </c>
+      <c r="C51">
+        <v>-0.01922833438462068</v>
+      </c>
+      <c r="D51">
+        <v>0.03213566964992527</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001357547084233581</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02006345800456445</v>
+      </c>
+      <c r="C53">
+        <v>-0.165260004714604</v>
+      </c>
+      <c r="D53">
+        <v>0.05263006748460072</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0006305136666430348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008258460129967797</v>
+      </c>
+      <c r="C54">
+        <v>-0.05576373229039672</v>
+      </c>
+      <c r="D54">
+        <v>0.04344521830250533</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004501917414413997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009245500094884796</v>
+      </c>
+      <c r="C55">
+        <v>-0.1051252429747511</v>
+      </c>
+      <c r="D55">
+        <v>0.05345467583596245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.00297910476840989</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01934892891133353</v>
+      </c>
+      <c r="C56">
+        <v>-0.1721433369477312</v>
+      </c>
+      <c r="D56">
+        <v>0.05075631073322534</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008142342634334027</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01922199007303575</v>
+      </c>
+      <c r="C58">
+        <v>-0.09979149369517838</v>
+      </c>
+      <c r="D58">
+        <v>0.07958594001492428</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007006142393227627</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009293827252449618</v>
+      </c>
+      <c r="C59">
+        <v>-0.1694085259831844</v>
+      </c>
+      <c r="D59">
+        <v>-0.2771690413784936</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006487916893307879</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02305240006536972</v>
+      </c>
+      <c r="C60">
+        <v>-0.2212056444129158</v>
+      </c>
+      <c r="D60">
+        <v>0.0298109765718605</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01576873817805428</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002200995415648966</v>
+      </c>
+      <c r="C61">
+        <v>-0.09473483050597375</v>
+      </c>
+      <c r="D61">
+        <v>0.06191507288827442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1840811198640321</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1434536129274537</v>
+      </c>
+      <c r="C62">
+        <v>-0.07481492426008531</v>
+      </c>
+      <c r="D62">
+        <v>0.05274189023790835</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002344227285705731</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006430822678219486</v>
+      </c>
+      <c r="C63">
+        <v>-0.05940600825263027</v>
+      </c>
+      <c r="D63">
+        <v>0.02626599314991456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.007767956099416096</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01450983704989556</v>
+      </c>
+      <c r="C64">
+        <v>-0.1017581393673178</v>
+      </c>
+      <c r="D64">
+        <v>0.06215825870209239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.000248104971307921</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01677934381259767</v>
+      </c>
+      <c r="C65">
+        <v>-0.1130830570895305</v>
+      </c>
+      <c r="D65">
+        <v>0.0305096424463308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.009965776651142573</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.0118615120752216</v>
+      </c>
+      <c r="C66">
+        <v>-0.1538045787470428</v>
+      </c>
+      <c r="D66">
+        <v>0.117792452370366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002567098663393468</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01550294839298903</v>
+      </c>
+      <c r="C67">
+        <v>-0.06343047569284391</v>
+      </c>
+      <c r="D67">
+        <v>0.04013875019206633</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007608140521234418</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001495027706425512</v>
+      </c>
+      <c r="C68">
+        <v>-0.1116531313151643</v>
+      </c>
+      <c r="D68">
+        <v>-0.2626303562251739</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.003496362533226618</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.005648573511256007</v>
+      </c>
+      <c r="C69">
+        <v>-0.04515978209317408</v>
+      </c>
+      <c r="D69">
+        <v>0.04440513872866821</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001682661688427168</v>
+      </c>
+      <c r="C70">
+        <v>-0.001974371373703721</v>
+      </c>
+      <c r="D70">
+        <v>0.002629231325609657</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.003098347360041337</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006313269797908562</v>
+      </c>
+      <c r="C71">
+        <v>-0.1134438657371924</v>
+      </c>
+      <c r="D71">
+        <v>-0.2823508307703271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008700729239716409</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01487501893852315</v>
+      </c>
+      <c r="C72">
+        <v>-0.1502653196675266</v>
+      </c>
+      <c r="D72">
+        <v>0.02716377581274327</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01367470633595074</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02967446211113641</v>
+      </c>
+      <c r="C73">
+        <v>-0.2825754889948536</v>
+      </c>
+      <c r="D73">
+        <v>0.05406904154497548</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004323879769720022</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001581020071059655</v>
+      </c>
+      <c r="C74">
+        <v>-0.1029810535384292</v>
+      </c>
+      <c r="D74">
+        <v>0.04345891976454428</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006976834509306742</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01048045504358914</v>
+      </c>
+      <c r="C75">
+        <v>-0.1311376518050202</v>
+      </c>
+      <c r="D75">
+        <v>0.04145940090107674</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01177063617572769</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02106115168590126</v>
+      </c>
+      <c r="C76">
+        <v>-0.1444579218293686</v>
+      </c>
+      <c r="D76">
+        <v>0.07399153343284971</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.003341308473839303</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02310140333941713</v>
+      </c>
+      <c r="C77">
+        <v>-0.1306518895315416</v>
+      </c>
+      <c r="D77">
+        <v>0.06022468986871592</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0009133601591821821</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01385723660934924</v>
+      </c>
+      <c r="C78">
+        <v>-0.09112874633886749</v>
+      </c>
+      <c r="D78">
+        <v>0.06687360802184306</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02773751927964889</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03661776125120392</v>
+      </c>
+      <c r="C79">
+        <v>-0.156603341834275</v>
+      </c>
+      <c r="D79">
+        <v>0.03546423803647798</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005379739003586198</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01055211357627491</v>
+      </c>
+      <c r="C80">
+        <v>-0.04135727724516826</v>
+      </c>
+      <c r="D80">
+        <v>0.03519560050214943</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>6.05966617015557e-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.0144428042623381</v>
+      </c>
+      <c r="C81">
+        <v>-0.1198598146643748</v>
+      </c>
+      <c r="D81">
+        <v>0.05771748445083089</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006569902458209174</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01943866987407071</v>
+      </c>
+      <c r="C82">
+        <v>-0.1418535780325143</v>
+      </c>
+      <c r="D82">
+        <v>0.04747160501638479</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006563239405528391</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009723965193771372</v>
+      </c>
+      <c r="C83">
+        <v>-0.05588442844085503</v>
+      </c>
+      <c r="D83">
+        <v>0.05247278833391753</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01324838840262141</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01165874858051446</v>
+      </c>
+      <c r="C84">
+        <v>-0.02977407771142561</v>
+      </c>
+      <c r="D84">
+        <v>0.001491074651131974</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01645737331565862</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02775257381604309</v>
+      </c>
+      <c r="C85">
+        <v>-0.1277189573654259</v>
+      </c>
+      <c r="D85">
+        <v>0.05437327219811105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.00349555316132553</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005319316464530877</v>
+      </c>
+      <c r="C86">
+        <v>-0.04731602233587213</v>
+      </c>
+      <c r="D86">
+        <v>0.02586167603927902</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007559088392266919</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.00960456142403639</v>
+      </c>
+      <c r="C87">
+        <v>-0.1266119280425017</v>
+      </c>
+      <c r="D87">
+        <v>0.08069552497917944</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01417221691864919</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003053404907814666</v>
+      </c>
+      <c r="C88">
+        <v>-0.06923932567275895</v>
+      </c>
+      <c r="D88">
+        <v>0.02073601578054273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01468862976043613</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001025650783023689</v>
+      </c>
+      <c r="C89">
+        <v>-0.1643721425611511</v>
+      </c>
+      <c r="D89">
+        <v>-0.3451583642040086</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002639392797417931</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007301331341061489</v>
+      </c>
+      <c r="C90">
+        <v>-0.1442691618167105</v>
+      </c>
+      <c r="D90">
+        <v>-0.3177167025534266</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002146017888498102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01011864984497552</v>
+      </c>
+      <c r="C91">
+        <v>-0.1029357625066123</v>
+      </c>
+      <c r="D91">
+        <v>0.02261850244898992</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01422198325108055</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0003616514703971022</v>
+      </c>
+      <c r="C92">
+        <v>-0.1532730754127005</v>
+      </c>
+      <c r="D92">
+        <v>-0.3280052051414552</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0016016168225701</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005268483961297294</v>
+      </c>
+      <c r="C93">
+        <v>-0.125524978117533</v>
+      </c>
+      <c r="D93">
+        <v>-0.3088016200124413</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003066258288324503</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.0218905605772194</v>
+      </c>
+      <c r="C94">
+        <v>-0.1577326490956502</v>
+      </c>
+      <c r="D94">
+        <v>0.0359782388035202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005547069457843656</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01588813317391092</v>
+      </c>
+      <c r="C95">
+        <v>-0.1226298968426261</v>
+      </c>
+      <c r="D95">
+        <v>0.06985038645784619</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.00412580231093146</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03470706114589741</v>
+      </c>
+      <c r="C97">
+        <v>-0.1749996302206399</v>
+      </c>
+      <c r="D97">
+        <v>0.04210817452102047</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.006060084294780573</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.0355370534417659</v>
+      </c>
+      <c r="C98">
+        <v>-0.2584105465925433</v>
+      </c>
+      <c r="D98">
+        <v>0.04271778223851627</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9804916796425307</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9829017217169411</v>
+      </c>
+      <c r="C99">
+        <v>0.1078528250454979</v>
+      </c>
+      <c r="D99">
+        <v>-0.03258733321908217</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001729821921539573</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003243304647754147</v>
+      </c>
+      <c r="C101">
+        <v>-0.04792485573473199</v>
+      </c>
+      <c r="D101">
+        <v>0.01709775011896262</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
